--- a/data/trans_orig/IQ3003_MoAR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ3003_MoAR-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42787B69-07AB-4244-A7CF-BBB0B671183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E0FD01A-1A1D-4D94-9D26-2BFF5AD6A919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A413D639-43F2-48D8-A83C-83BF35E5A456}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{23516DCB-72E4-41F0-97AF-8B1A5EC53DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -79,6 +79,210 @@
     <t>1,49%</t>
   </si>
   <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
     <t>0,99%</t>
   </si>
   <si>
@@ -91,468 +295,264 @@
     <t>2,34%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
     <t>Menores según la edad en meses en la que empezaron a comer fruta en 2012 (Tasa respuesta: 14,63%)</t>
   </si>
   <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
     <t>1,21%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
     <t>0,83%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
     <t>Menores según la edad en meses en la que empezaron a comer fruta en 2015 (Tasa respuesta: 11,52%)</t>
   </si>
   <si>
@@ -562,6 +562,204 @@
     <t>1,51%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
     <t>5,64%</t>
   </si>
   <si>
@@ -571,208 +769,10 @@
     <t>11,47%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
     <t>8,08%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028723DB-428F-41BB-B204-4359C84CEE9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6EC5EF-2F4E-4633-A3B7-A6075977B53C}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1279,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1297,40 +1297,40 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>767</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1375,625 +1375,625 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>4127</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>4838</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>24086</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>27122</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>51208</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>23205</v>
+        <v>1403</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>22970</v>
+        <v>662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>46175</v>
+        <v>2065</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>24435</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H9" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>17823</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>42258</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3281</v>
+        <v>1193</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>4699</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>7980</v>
+        <v>1193</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3330</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>2085</v>
+        <v>634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>5415</v>
+        <v>634</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>3330</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>634</v>
+        <v>2085</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>634</v>
+        <v>5415</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>1193</v>
+        <v>3281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>4699</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>1193</v>
+        <v>7980</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>24435</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>17823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>42258</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7">
-        <v>1403</v>
+        <v>23205</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I15" s="7">
-        <v>662</v>
+        <v>22970</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="M15" s="7">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="N15" s="7">
-        <v>2065</v>
+        <v>46175</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>24086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>27122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>51208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>4127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>4838</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2038,13 +2038,13 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2062,34 +2062,34 @@
         <v>12</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,7 +2148,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2193,7 +2193,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2238,7 +2238,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2328,7 +2328,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2373,7 +2373,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2418,7 +2418,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2463,7 +2463,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2553,7 +2553,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2598,7 +2598,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2688,7 +2688,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -2733,7 +2733,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -2778,7 +2778,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -2823,7 +2823,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>88</v>
       </c>
       <c r="B38" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -2960,7 +2960,7 @@
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -3005,7 +3005,7 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -3050,7 +3050,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -3095,7 +3095,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -3140,7 +3140,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -3185,7 +3185,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -3230,7 +3230,7 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -3275,7 +3275,7 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -3320,7 +3320,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -3410,7 +3410,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -3455,7 +3455,7 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -3500,7 +3500,7 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -3545,7 +3545,7 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -3590,7 +3590,7 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -3700,40 +3700,40 @@
         <v>12</v>
       </c>
       <c r="H55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" s="7" t="s">
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="M55" s="7">
-        <v>1</v>
-      </c>
-      <c r="N55" s="7">
-        <v>767</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -3778,625 +3778,625 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C57" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D57" s="7">
-        <v>4127</v>
+        <v>0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H57" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M57" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N57" s="7">
-        <v>4838</v>
+        <v>0</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C58" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D58" s="7">
-        <v>24086</v>
+        <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H58" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>27122</v>
+        <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M58" s="7">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="N58" s="7">
-        <v>51208</v>
+        <v>0</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C59" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D59" s="7">
-        <v>23205</v>
+        <v>1403</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H59" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I59" s="7">
-        <v>22970</v>
+        <v>662</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M59" s="7">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="N59" s="7">
-        <v>46175</v>
+        <v>2065</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C60" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D60" s="7">
-        <v>24435</v>
+        <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H60" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>17823</v>
+        <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M60" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="N60" s="7">
-        <v>42258</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C61" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" s="7">
-        <v>3281</v>
+        <v>1193</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H61" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>4699</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M61" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N61" s="7">
-        <v>7980</v>
+        <v>1193</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D62" s="7">
-        <v>3330</v>
+        <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="H62" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" s="7">
-        <v>2085</v>
+        <v>634</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="M62" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N62" s="7">
-        <v>5415</v>
+        <v>634</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D63" s="7">
-        <v>0</v>
+        <v>3330</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H63" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63" s="7">
-        <v>634</v>
+        <v>2085</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="M63" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N63" s="7">
-        <v>634</v>
+        <v>5415</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C64" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" s="7">
-        <v>1193</v>
+        <v>3281</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H64" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I64" s="7">
-        <v>0</v>
+        <v>4699</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M64" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N64" s="7">
-        <v>1193</v>
+        <v>7980</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C65" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D65" s="7">
-        <v>0</v>
+        <v>24435</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H65" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I65" s="7">
-        <v>0</v>
+        <v>17823</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M65" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="N65" s="7">
-        <v>0</v>
+        <v>42258</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C66" s="7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D66" s="7">
-        <v>1403</v>
+        <v>23205</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H66" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I66" s="7">
-        <v>662</v>
+        <v>22970</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="M66" s="7">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="N66" s="7">
-        <v>2065</v>
+        <v>46175</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C67" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D67" s="7">
-        <v>0</v>
+        <v>24086</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="H67" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I67" s="7">
-        <v>0</v>
+        <v>27122</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="M67" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N67" s="7">
-        <v>0</v>
+        <v>51208</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C68" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D68" s="7">
-        <v>0</v>
+        <v>4127</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="H68" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="7">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="M68" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N68" s="7">
-        <v>0</v>
+        <v>4838</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
@@ -4426,7 +4426,7 @@
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -4441,13 +4441,13 @@
         <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
@@ -4465,34 +4465,34 @@
         <v>12</v>
       </c>
       <c r="H70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="7">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="M70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="7">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,7 +4562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADEE92A-81DC-45FA-B594-7F01038578D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10138065-B755-475A-B34D-FBBEBFAFA300}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4677,7 +4677,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -4692,58 +4692,58 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4758,19 +4758,19 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>95</v>
@@ -4779,7 +4779,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4794,553 +4794,553 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>29527</v>
+        <v>647</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>22450</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M7" s="7">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>51978</v>
+        <v>647</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>27138</v>
+        <v>4286</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>30194</v>
+        <v>1359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>57332</v>
+        <v>5645</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>30603</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>34386</v>
+        <v>893</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="M9" s="7">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>64990</v>
+        <v>893</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>4645</v>
+        <v>669</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>4729</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>9373</v>
+        <v>669</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4829</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>632</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3414</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="7">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6635</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M11" s="7">
-        <v>15</v>
-      </c>
       <c r="N11" s="7">
-        <v>10049</v>
+        <v>5461</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>4829</v>
+        <v>3414</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>632</v>
+        <v>6635</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>5461</v>
+        <v>10049</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>669</v>
+        <v>4645</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>4729</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>669</v>
+        <v>9373</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>30603</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>893</v>
+        <v>34386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="N14" s="7">
-        <v>893</v>
+        <v>64990</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7">
-        <v>4286</v>
+        <v>27138</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>1359</v>
+        <v>30194</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M15" s="7">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="N15" s="7">
-        <v>5645</v>
+        <v>57332</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>647</v>
+        <v>29527</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>22450</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="N16" s="7">
-        <v>647</v>
+        <v>51978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -5355,58 +5355,58 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>2350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>2350</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5421,28 +5421,28 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -5457,37 +5457,37 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,7 +5546,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -5591,7 +5591,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -5636,7 +5636,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -5681,7 +5681,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -5726,7 +5726,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -5771,7 +5771,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5816,7 +5816,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -5861,7 +5861,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -5906,7 +5906,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -5951,7 +5951,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -5996,7 +5996,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -6041,7 +6041,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -6086,7 +6086,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -6131,7 +6131,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -6176,7 +6176,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -6221,7 +6221,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>88</v>
       </c>
       <c r="B38" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -6358,7 +6358,7 @@
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -6403,7 +6403,7 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -6448,7 +6448,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -6493,7 +6493,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -6538,7 +6538,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -6583,7 +6583,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -6628,7 +6628,7 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -6673,7 +6673,7 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -6718,7 +6718,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -6763,7 +6763,7 @@
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -6808,7 +6808,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -6853,7 +6853,7 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -6898,7 +6898,7 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -6943,7 +6943,7 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -6988,7 +6988,7 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -7080,7 +7080,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -7095,58 +7095,58 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="7">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="7">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="7">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7161,19 +7161,19 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="7">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>95</v>
@@ -7182,7 +7182,7 @@
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C57" s="7">
         <v>0</v>
@@ -7197,553 +7197,553 @@
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H57" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M57" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N57" s="7">
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C58" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D58" s="7">
-        <v>29527</v>
+        <v>647</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H58" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>22450</v>
+        <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M58" s="7">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="N58" s="7">
-        <v>51978</v>
+        <v>647</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C59" s="7">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D59" s="7">
-        <v>27138</v>
+        <v>4286</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H59" s="7">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I59" s="7">
-        <v>30194</v>
+        <v>1359</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="M59" s="7">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N59" s="7">
-        <v>57332</v>
+        <v>5645</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C60" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D60" s="7">
-        <v>30603</v>
+        <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="H60" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I60" s="7">
-        <v>34386</v>
+        <v>893</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="M60" s="7">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="N60" s="7">
-        <v>64990</v>
+        <v>893</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C61" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>4645</v>
+        <v>669</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H61" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>4729</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="M61" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N61" s="7">
-        <v>9373</v>
+        <v>669</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
+        <v>9</v>
+      </c>
+      <c r="C62" s="7">
+        <v>7</v>
+      </c>
+      <c r="D62" s="7">
+        <v>4829</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H62" s="7">
+        <v>1</v>
+      </c>
+      <c r="I62" s="7">
+        <v>632</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M62" s="7">
         <v>8</v>
       </c>
-      <c r="C62" s="7">
-        <v>5</v>
-      </c>
-      <c r="D62" s="7">
-        <v>3414</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H62" s="7">
-        <v>10</v>
-      </c>
-      <c r="I62" s="7">
-        <v>6635</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M62" s="7">
-        <v>15</v>
-      </c>
       <c r="N62" s="7">
-        <v>10049</v>
+        <v>5461</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D63" s="7">
-        <v>4829</v>
+        <v>3414</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="H63" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I63" s="7">
-        <v>632</v>
+        <v>6635</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="M63" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N63" s="7">
-        <v>5461</v>
+        <v>10049</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C64" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D64" s="7">
-        <v>669</v>
+        <v>4645</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="H64" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I64" s="7">
-        <v>0</v>
+        <v>4729</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="M64" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N64" s="7">
-        <v>669</v>
+        <v>9373</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C65" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D65" s="7">
-        <v>0</v>
+        <v>30603</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="H65" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I65" s="7">
-        <v>893</v>
+        <v>34386</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="M65" s="7">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="N65" s="7">
-        <v>893</v>
+        <v>64990</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C66" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D66" s="7">
-        <v>4286</v>
+        <v>27138</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H66" s="7">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="I66" s="7">
-        <v>1359</v>
+        <v>30194</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M66" s="7">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="N66" s="7">
-        <v>5645</v>
+        <v>57332</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C67" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D67" s="7">
-        <v>647</v>
+        <v>29527</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H67" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I67" s="7">
-        <v>0</v>
+        <v>22450</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="M67" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="N67" s="7">
-        <v>647</v>
+        <v>51978</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
@@ -7758,58 +7758,58 @@
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H68" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I68" s="7">
-        <v>0</v>
+        <v>2350</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="M68" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N68" s="7">
-        <v>0</v>
+        <v>2350</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C69" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="7">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -7824,28 +7824,28 @@
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M69" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" s="7">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
@@ -7860,37 +7860,37 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H70" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="M70" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" s="7">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,7 +7960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BED37E1-0F04-4028-B4C2-BABC5A72E0DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1737C51E-CF91-4060-A6EA-C49B39BE954C}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8075,7 +8075,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -8120,694 +8120,694 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>532</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>4476</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2761</v>
+        <v>846</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>177</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>7237</v>
+        <v>846</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>17925</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>14244</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>32169</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>11575</v>
+        <v>1374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>12231</v>
+        <v>2613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>23806</v>
+        <v>3987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>30674</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="H9" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>34231</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="M9" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>64905</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>6388</v>
+        <v>1258</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>3819</v>
+        <v>648</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>10207</v>
+        <v>1906</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>2060</v>
+        <v>3084</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>4485</v>
+        <v>2472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>6545</v>
+        <v>5556</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>3084</v>
+        <v>2060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>2472</v>
+        <v>4485</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>5556</v>
+        <v>6545</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>1258</v>
+        <v>6388</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>648</v>
+        <v>3819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>1906</v>
+        <v>10207</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>30674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>34231</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>64905</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D15" s="7">
-        <v>1374</v>
+        <v>11575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H15" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I15" s="7">
-        <v>2613</v>
+        <v>12231</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M15" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="N15" s="7">
-        <v>3987</v>
+        <v>23806</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>17925</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>14244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>32169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>4476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>846</v>
+        <v>2761</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>846</v>
+        <v>7237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
         <v>0</v>
@@ -8816,31 +8816,31 @@
         <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -8885,7 +8885,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8944,7 +8944,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -8989,7 +8989,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -9034,7 +9034,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -9079,7 +9079,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -9124,7 +9124,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -9169,7 +9169,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -9214,7 +9214,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -9259,7 +9259,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -9304,7 +9304,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -9349,7 +9349,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -9394,7 +9394,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -9439,7 +9439,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -9484,7 +9484,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -9529,7 +9529,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -9574,7 +9574,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -9619,7 +9619,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>88</v>
       </c>
       <c r="B38" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -9756,7 +9756,7 @@
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -9801,7 +9801,7 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -9846,7 +9846,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -9891,7 +9891,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -9936,7 +9936,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -9981,7 +9981,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -10026,7 +10026,7 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -10071,7 +10071,7 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -10116,7 +10116,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -10161,7 +10161,7 @@
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -10206,7 +10206,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -10251,7 +10251,7 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -10296,7 +10296,7 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -10341,7 +10341,7 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -10386,7 +10386,7 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -10478,7 +10478,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -10523,694 +10523,694 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
+        <v>18</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7">
+        <v>532</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H56" s="7">
+        <v>1</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56" s="7">
         <v>2</v>
       </c>
-      <c r="C56" s="7">
-        <v>0</v>
-      </c>
-      <c r="D56" s="7">
-        <v>0</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
       <c r="N56" s="7">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C57" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D57" s="7">
-        <v>4476</v>
+        <v>0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H57" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57" s="7">
-        <v>2761</v>
+        <v>846</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>177</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="M57" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N57" s="7">
-        <v>7237</v>
+        <v>846</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C58" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D58" s="7">
-        <v>17925</v>
+        <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H58" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>14244</v>
+        <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="M58" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="N58" s="7">
-        <v>32169</v>
+        <v>0</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C59" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D59" s="7">
-        <v>11575</v>
+        <v>1374</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H59" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I59" s="7">
-        <v>12231</v>
+        <v>2613</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="M59" s="7">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="N59" s="7">
-        <v>23806</v>
+        <v>3987</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C60" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D60" s="7">
-        <v>30674</v>
+        <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="H60" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>34231</v>
+        <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="M60" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="N60" s="7">
-        <v>64905</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C61" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D61" s="7">
-        <v>6388</v>
+        <v>1258</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="H61" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I61" s="7">
-        <v>3819</v>
+        <v>648</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="M61" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N61" s="7">
-        <v>10207</v>
+        <v>1906</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" s="7">
-        <v>2060</v>
+        <v>3084</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="H62" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I62" s="7">
-        <v>4485</v>
+        <v>2472</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="M62" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N62" s="7">
-        <v>6545</v>
+        <v>5556</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" s="7">
-        <v>3084</v>
+        <v>2060</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="H63" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I63" s="7">
-        <v>2472</v>
+        <v>4485</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="M63" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N63" s="7">
-        <v>5556</v>
+        <v>6545</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C64" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D64" s="7">
-        <v>1258</v>
+        <v>6388</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="H64" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I64" s="7">
-        <v>648</v>
+        <v>3819</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="M64" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N64" s="7">
-        <v>1906</v>
+        <v>10207</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C65" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D65" s="7">
-        <v>0</v>
+        <v>30674</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="H65" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I65" s="7">
-        <v>0</v>
+        <v>34231</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="M65" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="N65" s="7">
-        <v>0</v>
+        <v>64905</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C66" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D66" s="7">
-        <v>1374</v>
+        <v>11575</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H66" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I66" s="7">
-        <v>2613</v>
+        <v>12231</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M66" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="N66" s="7">
-        <v>3987</v>
+        <v>23806</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C67" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D67" s="7">
-        <v>0</v>
+        <v>17925</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="H67" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I67" s="7">
-        <v>0</v>
+        <v>14244</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="M67" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N67" s="7">
-        <v>0</v>
+        <v>32169</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C68" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D68" s="7">
-        <v>0</v>
+        <v>4476</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="H68" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68" s="7">
-        <v>846</v>
+        <v>2761</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="M68" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N68" s="7">
-        <v>846</v>
+        <v>7237</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="7">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="H69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
         <v>0</v>
@@ -11219,31 +11219,31 @@
         <v>10</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="M69" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N69" s="7">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
@@ -11288,7 +11288,7 @@
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
